--- a/uploadFiles/2. 시스템일일보고_클라이언트보안_20240906.xlsx
+++ b/uploadFiles/2. 시스템일일보고_클라이언트보안_20240906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\20240920\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D36DA0D-70B5-4EDE-91CC-C602E07D8476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF746FF-635D-4D52-A0F7-93DD5AFCE8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,14 +43,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">자료교환!$A$2:$H$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">자료연계!$A$2:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">하나쉴드!$A$2:$H$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="291">
   <si>
     <t>구분</t>
     <phoneticPr fontId="26" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>1. 클라이언트보안 시스템 가동현황 및 특이사항</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>BM가드 #1</t>
   </si>
   <si>
@@ -373,7 +369,7 @@
   </si>
   <si>
     <t>VM</t>
-    <phoneticPr fontId="77" type="noConversion"/>
+    <phoneticPr fontId="75" type="noConversion"/>
   </si>
   <si>
     <t>NO</t>
@@ -913,7 +909,7 @@
   </si>
   <si>
     <t>Dell R740</t>
-    <phoneticPr fontId="77" type="noConversion"/>
+    <phoneticPr fontId="75" type="noConversion"/>
   </si>
   <si>
     <t>Hyboost EW1000</t>
@@ -1169,7 +1165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="80">
+  <fonts count="78">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1384,21 +1380,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="하나 UL"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2410,37 +2391,37 @@
   <cellStyleXfs count="4984">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2467,37 +2448,37 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2524,37 +2505,37 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2581,37 +2562,37 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2638,37 +2619,37 @@
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2695,37 +2676,37 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2752,37 +2733,37 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2809,880 +2790,880 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="53" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="53" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3709,330 +3690,366 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="55" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="55" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="39" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="39" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -4066,127 +4083,91 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -4197,45 +4178,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -17302,7 +17283,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17319,196 +17300,193 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="56" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="56" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="56" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="13" xfId="4981" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="13" xfId="4981" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="13" xfId="4981" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="13" xfId="4981" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="56" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4984">
@@ -22800,328 +22778,315 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25">
-      <c r="A1" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+    <row r="1" spans="1:19">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="5.0999999999999996" customHeight="1"/>
-    <row r="3" spans="1:20">
-      <c r="B3" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="30">
+        <v>60</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="29">
         <v>3</v>
       </c>
+      <c r="C4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="27" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="30">
+        <v>6</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="30">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="50"/>
+      <c r="C6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="31"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="B5" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="30">
-        <v>60</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="B6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="29" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="29">
+        <v>9</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>7</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="I6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="30">
-        <v>6</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28"/>
+      <c r="L7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="24">
+      <c r="A8" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="34">
+        <v>10</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="34">
+        <v>4</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="34">
+        <v>10</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="H7" s="1" t="s">
+      <c r="D10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="N10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="33">
+        <v>32</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="33">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="30">
+        <v>22</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="33">
+        <v>2</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="33">
+        <f>SUM(B3:B16)</f>
+        <v>178</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="H17" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="30">
-        <v>4</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="29">
-        <v>9</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="M9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="24">
-      <c r="B10" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="34">
-        <v>10</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="34">
-        <v>4</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="34">
-        <v>10</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="O12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="33">
-        <v>32</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="47"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="B14" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="33">
-        <v>14</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="47"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="30">
-        <v>22</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="33">
-        <v>1</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="33">
-        <v>2</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="33">
-        <f>SUM(C5:C18)</f>
-        <v>178</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="I19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23203,7 +23168,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -23215,7 +23180,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -23227,7 +23192,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -23239,7 +23204,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -23251,7 +23216,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -23263,7 +23228,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -23275,7 +23240,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -23287,7 +23252,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -23299,7 +23264,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -23311,7 +23276,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>25</v>
@@ -23323,7 +23288,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -23335,7 +23300,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
@@ -23347,7 +23312,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -23359,7 +23324,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>25</v>
@@ -23371,7 +23336,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -23383,7 +23348,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>25</v>
@@ -23395,7 +23360,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -23407,7 +23372,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>25</v>
@@ -23419,7 +23384,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -23431,7 +23396,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>25</v>
@@ -23443,7 +23408,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -23455,7 +23420,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>25</v>
@@ -23467,7 +23432,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -23479,7 +23444,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
@@ -23491,7 +23456,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -23503,7 +23468,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>25</v>
@@ -23515,7 +23480,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -23527,7 +23492,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -23539,7 +23504,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -23551,7 +23516,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>25</v>
@@ -23563,7 +23528,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -23575,7 +23540,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>25</v>
@@ -23587,7 +23552,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -23599,7 +23564,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>25</v>
@@ -23611,7 +23576,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -23623,7 +23588,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>25</v>
@@ -23635,7 +23600,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -23647,7 +23612,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>25</v>
@@ -23659,7 +23624,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -23671,7 +23636,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>25</v>
@@ -23683,7 +23648,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -23695,7 +23660,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>25</v>
@@ -23707,7 +23672,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -23719,7 +23684,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>25</v>
@@ -23731,7 +23696,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -23743,7 +23708,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>25</v>
@@ -23755,7 +23720,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -23767,7 +23732,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -23779,7 +23744,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -23791,7 +23756,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>25</v>
@@ -23803,7 +23768,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -23815,7 +23780,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>25</v>
@@ -23827,7 +23792,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -23839,7 +23804,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>25</v>
@@ -23851,7 +23816,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -23863,7 +23828,7 @@
         <v>24</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>25</v>
@@ -23875,7 +23840,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -23887,7 +23852,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>25</v>
@@ -23899,7 +23864,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -23911,7 +23876,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>25</v>
@@ -23923,7 +23888,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -23935,7 +23900,7 @@
         <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>25</v>
@@ -23947,7 +23912,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -23959,7 +23924,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>25</v>
@@ -24080,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -24092,7 +24057,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -24104,7 +24069,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -24116,7 +24081,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -24128,7 +24093,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -24140,7 +24105,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -24152,7 +24117,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -24164,7 +24129,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -24176,7 +24141,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -24188,7 +24153,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>25</v>
@@ -24200,7 +24165,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -24212,7 +24177,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
@@ -24224,7 +24189,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -24236,7 +24201,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>25</v>
@@ -24248,7 +24213,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -24260,7 +24225,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>25</v>
@@ -24272,7 +24237,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -24284,7 +24249,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>25</v>
@@ -24296,7 +24261,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -24308,7 +24273,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>25</v>
@@ -24320,7 +24285,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -24332,7 +24297,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>25</v>
@@ -24344,7 +24309,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -24356,7 +24321,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
@@ -24368,7 +24333,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -24380,10 +24345,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -24392,7 +24357,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -24404,7 +24369,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -24527,7 +24492,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="36">
         <v>1</v>
@@ -24539,7 +24504,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>25</v>
@@ -24551,7 +24516,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="36">
         <v>1</v>
@@ -24563,7 +24528,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>25</v>
@@ -24575,7 +24540,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="36">
         <v>1</v>
@@ -24587,7 +24552,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>25</v>
@@ -24599,7 +24564,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -24611,7 +24576,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>25</v>
@@ -24623,7 +24588,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
@@ -24635,13 +24600,13 @@
         <v>24</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1">
@@ -24649,7 +24614,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="36">
         <v>1</v>
@@ -24661,13 +24626,13 @@
         <v>24</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1">
@@ -24675,7 +24640,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -24687,7 +24652,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>25</v>
@@ -24699,7 +24664,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="36">
         <v>1</v>
@@ -24711,7 +24676,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>25</v>
@@ -24723,7 +24688,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="36">
         <v>1</v>
@@ -24735,7 +24700,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>25</v>
@@ -24747,7 +24712,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -24759,7 +24724,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>25</v>
@@ -24771,7 +24736,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="36">
         <v>1</v>
@@ -24783,7 +24748,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>25</v>
@@ -24795,7 +24760,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="36">
         <v>1</v>
@@ -24807,7 +24772,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>25</v>
@@ -24819,7 +24784,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="36">
         <v>1</v>
@@ -24831,7 +24796,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>25</v>
@@ -24843,7 +24808,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="36">
         <v>1</v>
@@ -24855,7 +24820,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>25</v>
@@ -24867,7 +24832,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" s="36">
         <v>1</v>
@@ -24879,7 +24844,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>25</v>
@@ -24891,7 +24856,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="36">
         <v>1</v>
@@ -24903,7 +24868,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>25</v>
@@ -24915,7 +24880,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="36">
         <v>1</v>
@@ -24927,7 +24892,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>25</v>
@@ -24939,7 +24904,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="36">
         <v>1</v>
@@ -24951,7 +24916,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>25</v>
@@ -24963,7 +24928,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C22" s="36">
         <v>1</v>
@@ -24975,7 +24940,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>25</v>
@@ -24987,7 +24952,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="36">
         <v>1</v>
@@ -24999,7 +24964,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>25</v>
@@ -25011,7 +24976,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="36">
         <v>1</v>
@@ -25023,7 +24988,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>25</v>
@@ -25035,7 +25000,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" s="36">
         <v>1</v>
@@ -25047,7 +25012,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>25</v>
@@ -25173,7 +25138,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -25185,7 +25150,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -25307,7 +25272,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -25319,7 +25284,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -25428,7 +25393,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -25440,7 +25405,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -25452,7 +25417,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
@@ -25464,7 +25429,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -25582,7 +25547,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -25594,7 +25559,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -25606,7 +25571,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -25618,7 +25583,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -25630,7 +25595,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -25642,7 +25607,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -25654,7 +25619,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -25666,7 +25631,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -25678,7 +25643,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -25690,7 +25655,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>25</v>
@@ -25702,7 +25667,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -25714,7 +25679,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
@@ -25726,7 +25691,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -25738,7 +25703,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>25</v>
@@ -25750,7 +25715,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -25762,7 +25727,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>25</v>
@@ -25774,7 +25739,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -25786,7 +25751,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>25</v>
@@ -25798,7 +25763,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -25810,7 +25775,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>25</v>
@@ -25822,7 +25787,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -25834,7 +25799,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>25</v>
@@ -25846,7 +25811,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -25858,7 +25823,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
@@ -25870,7 +25835,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -25882,7 +25847,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>25</v>
@@ -25894,7 +25859,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -25906,7 +25871,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -25918,7 +25883,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -25930,7 +25895,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>25</v>
@@ -25942,7 +25907,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -25954,7 +25919,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>25</v>
@@ -25966,7 +25931,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -25978,7 +25943,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>25</v>
@@ -25990,7 +25955,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -26002,7 +25967,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>25</v>
@@ -26014,7 +25979,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -26026,7 +25991,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>25</v>
@@ -26038,7 +26003,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -26050,7 +26015,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>25</v>
@@ -26062,7 +26027,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -26074,7 +26039,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>25</v>
@@ -26086,7 +26051,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -26098,7 +26063,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>25</v>
@@ -26110,7 +26075,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -26122,7 +26087,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>25</v>
@@ -26134,7 +26099,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -26146,7 +26111,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -26158,7 +26123,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -26170,7 +26135,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>25</v>
@@ -26182,7 +26147,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -26194,7 +26159,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>25</v>
@@ -26206,7 +26171,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -26218,7 +26183,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>25</v>
@@ -26230,7 +26195,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -26242,7 +26207,7 @@
         <v>24</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>25</v>
@@ -26254,7 +26219,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -26266,7 +26231,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>25</v>
@@ -26278,7 +26243,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -26290,7 +26255,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>25</v>
@@ -26302,7 +26267,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -26314,7 +26279,7 @@
         <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>25</v>
@@ -26326,7 +26291,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -26338,7 +26303,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>25</v>
@@ -26350,7 +26315,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -26362,7 +26327,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>25</v>
@@ -26374,7 +26339,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -26386,7 +26351,7 @@
         <v>24</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>25</v>
@@ -26398,7 +26363,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -26410,7 +26375,7 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>25</v>
@@ -26422,7 +26387,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -26434,7 +26399,7 @@
         <v>24</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>25</v>
@@ -26446,7 +26411,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -26458,7 +26423,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>25</v>
@@ -26470,7 +26435,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -26482,7 +26447,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>25</v>
@@ -26494,7 +26459,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
@@ -26506,7 +26471,7 @@
         <v>24</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>25</v>
@@ -26518,7 +26483,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" s="6">
         <v>1</v>
@@ -26530,7 +26495,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>25</v>
@@ -26542,7 +26507,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -26554,7 +26519,7 @@
         <v>24</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>25</v>
@@ -26566,7 +26531,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
@@ -26578,7 +26543,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>25</v>
@@ -26590,7 +26555,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
@@ -26602,7 +26567,7 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>25</v>
@@ -26614,7 +26579,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -26626,7 +26591,7 @@
         <v>24</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>25</v>
@@ -26638,7 +26603,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -26650,7 +26615,7 @@
         <v>24</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>25</v>
@@ -26662,7 +26627,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -26674,7 +26639,7 @@
         <v>24</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>25</v>
@@ -26686,7 +26651,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
@@ -26698,7 +26663,7 @@
         <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>25</v>
@@ -26710,7 +26675,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="6">
         <v>1</v>
@@ -26722,7 +26687,7 @@
         <v>24</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>25</v>
@@ -26734,7 +26699,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
@@ -26746,7 +26711,7 @@
         <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>25</v>
@@ -26758,7 +26723,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" s="6">
         <v>1</v>
@@ -26770,7 +26735,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>25</v>
@@ -26782,7 +26747,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -26794,7 +26759,7 @@
         <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>25</v>
@@ -26806,7 +26771,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" s="6">
         <v>1</v>
@@ -26818,7 +26783,7 @@
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>25</v>
@@ -26830,7 +26795,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -26842,7 +26807,7 @@
         <v>24</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>25</v>
@@ -26854,7 +26819,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -26866,7 +26831,7 @@
         <v>24</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>25</v>
@@ -26878,7 +26843,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -26890,7 +26855,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>25</v>
@@ -26902,7 +26867,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="6">
         <v>1</v>
@@ -26914,7 +26879,7 @@
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>25</v>
@@ -26926,7 +26891,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C60" s="6">
         <v>1</v>
@@ -26938,7 +26903,7 @@
         <v>24</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>25</v>
@@ -26950,7 +26915,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C61" s="6">
         <v>1</v>
@@ -26962,7 +26927,7 @@
         <v>24</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>25</v>
@@ -26974,7 +26939,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" s="6">
         <v>1</v>
@@ -26986,7 +26951,7 @@
         <v>24</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>25</v>
@@ -26998,7 +26963,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C63" s="6">
         <v>1</v>
@@ -27010,7 +26975,7 @@
         <v>24</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>25</v>
@@ -27130,7 +27095,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -27142,7 +27107,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -27154,7 +27119,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -27166,7 +27131,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -27178,7 +27143,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27190,7 +27155,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -27269,26 +27234,26 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A2" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
@@ -27299,11 +27264,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="51"/>
     </row>
@@ -27312,7 +27277,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -27324,7 +27289,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -27336,7 +27301,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -27348,7 +27313,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -27360,7 +27325,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27372,7 +27337,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -27384,7 +27349,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -27396,7 +27361,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -27408,7 +27373,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -27420,7 +27385,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>25</v>
@@ -27432,7 +27397,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -27444,7 +27409,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>25</v>
@@ -27453,7 +27418,7 @@
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="6">
@@ -27464,13 +27429,13 @@
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -27567,7 +27532,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -27579,7 +27544,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -27591,7 +27556,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -27603,7 +27568,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -27615,7 +27580,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27627,7 +27592,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -27639,7 +27604,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -27651,7 +27616,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -27736,14 +27701,14 @@
         <v>15</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -27760,7 +27725,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="2" t="s">
@@ -27773,7 +27738,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -27795,7 +27760,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -27817,7 +27782,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27839,7 +27804,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -27861,7 +27826,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -27883,7 +27848,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -27905,7 +27870,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -27927,7 +27892,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
@@ -27949,7 +27914,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -27976,16 +27941,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="G13" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="19"/>
     </row>
@@ -28041,23 +28006,23 @@
         <v>14</v>
       </c>
       <c r="B2" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="D2" s="51" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="51" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
@@ -28065,14 +28030,14 @@
       <c r="B3" s="51"/>
       <c r="C3" s="56"/>
       <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="51"/>
     </row>
@@ -28081,25 +28046,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5">
@@ -28107,7 +28072,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -28119,13 +28084,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5">
@@ -28133,7 +28098,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -28145,13 +28110,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5">
@@ -28159,7 +28124,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -28171,13 +28136,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5">
@@ -28185,7 +28150,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -28197,13 +28162,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5">
@@ -28211,7 +28176,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -28223,13 +28188,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5">
@@ -28237,7 +28202,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -28249,13 +28214,13 @@
         <v>6</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5">
@@ -28263,7 +28228,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -28275,13 +28240,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5">
@@ -28289,7 +28254,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -28301,13 +28266,13 @@
         <v>6</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5">
@@ -28315,7 +28280,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -28327,18 +28292,18 @@
         <v>6</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="16.5">
       <c r="A14" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="6">
@@ -28346,16 +28311,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="10"/>
     </row>
@@ -28451,7 +28416,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
@@ -28463,7 +28428,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -28475,7 +28440,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="20">
         <v>1</v>
@@ -28487,7 +28452,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -28499,7 +28464,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -28511,7 +28476,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -28523,7 +28488,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="20">
         <v>1</v>
@@ -28535,7 +28500,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -28657,7 +28622,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -28669,7 +28634,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -28681,7 +28646,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -28693,7 +28658,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -28705,7 +28670,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -28717,7 +28682,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -28729,22 +28694,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -28753,22 +28718,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -28777,22 +28742,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9" s="10"/>
     </row>
@@ -28801,22 +28766,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -28825,7 +28790,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -28837,10 +28802,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -28849,7 +28814,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -28861,10 +28826,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -28873,7 +28838,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -28885,10 +28850,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10"/>
     </row>

--- a/uploadFiles/2. 시스템일일보고_클라이언트보안_20240906.xlsx
+++ b/uploadFiles/2. 시스템일일보고_클라이언트보안_20240906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\20240920\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF746FF-635D-4D52-A0F7-93DD5AFCE8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E7E58-47FE-43A9-A29E-8BA0C2CBCC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/uploadFiles/2. 시스템일일보고_클라이언트보안_20240906.xlsx
+++ b/uploadFiles/2. 시스템일일보고_클라이언트보안_20240906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\20240920\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E7E58-47FE-43A9-A29E-8BA0C2CBCC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E544795-7D74-4506-A433-C1BC73883289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,12 +45,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">하나쉴드!$A$2:$H$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$A$1:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="280">
   <si>
     <t>구분</t>
     <phoneticPr fontId="26" type="noConversion"/>
@@ -264,55 +277,11 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>이상없음</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -17300,7 +17269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -17450,6 +17419,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="33" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22778,35 +22753,37 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:5">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="27" t="s">
@@ -22817,9 +22794,9 @@
       </c>
       <c r="E2" s="50"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:5">
       <c r="A3" s="28" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B3" s="30">
         <v>60</v>
@@ -22828,11 +22805,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:5">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
@@ -22846,11 +22823,8 @@
         <v>7</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="H4" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:5">
       <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
@@ -22864,26 +22838,23 @@
         <v>7</v>
       </c>
       <c r="E5" s="31"/>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:5">
       <c r="A6" s="28" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B6" s="30">
         <v>4</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:5">
       <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
@@ -22897,16 +22868,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="28"/>
-      <c r="L7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="8" spans="1:19" ht="24">
+    <row r="8" spans="1:5" ht="24">
       <c r="A8" s="32" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B8" s="34">
         <v>10</v>
@@ -22918,37 +22883,25 @@
         <v>6</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:5">
       <c r="A9" s="32" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B9" s="34">
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:5">
       <c r="A10" s="32" t="s">
         <v>10</v>
       </c>
@@ -22962,14 +22915,8 @@
         <v>7</v>
       </c>
       <c r="E10" s="48"/>
-      <c r="N10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
         <v>13</v>
       </c>
@@ -22984,54 +22931,54 @@
       </c>
       <c r="E11" s="47"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B12" s="33">
         <v>14</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:5">
       <c r="A13" s="28" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B13" s="30">
         <v>22</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:5">
       <c r="A14" s="32" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B14" s="33">
         <v>1</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:5">
       <c r="A15" s="32" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B15" s="33">
         <v>1</v>
@@ -23044,9 +22991,9 @@
       </c>
       <c r="E15" s="34"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:5">
       <c r="A16" s="32" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B16" s="33">
         <v>2</v>
@@ -23059,7 +23006,7 @@
       </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:5">
       <c r="A17" s="32" t="s">
         <v>8</v>
       </c>
@@ -23074,12 +23021,6 @@
         <v>7</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="H17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -23124,44 +23065,44 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
@@ -23216,7 +23157,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -23240,7 +23181,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -23264,7 +23205,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -23288,7 +23229,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -23300,7 +23241,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
@@ -23336,7 +23277,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -23384,7 +23325,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -23408,7 +23349,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -23432,7 +23373,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -23456,7 +23397,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -23480,7 +23421,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -23504,7 +23445,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -23528,7 +23469,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -23552,7 +23493,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -23564,7 +23505,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>25</v>
@@ -23576,7 +23517,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -23588,7 +23529,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>25</v>
@@ -23600,7 +23541,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -23612,7 +23553,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>25</v>
@@ -23624,7 +23565,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -23636,7 +23577,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>25</v>
@@ -23648,7 +23589,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -23660,7 +23601,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>25</v>
@@ -23672,7 +23613,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -23684,7 +23625,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>25</v>
@@ -23696,7 +23637,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -23708,7 +23649,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>25</v>
@@ -23720,7 +23661,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -23732,7 +23673,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -23744,7 +23685,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -23756,7 +23697,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>25</v>
@@ -23768,7 +23709,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -23780,7 +23721,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>25</v>
@@ -23792,7 +23733,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -23804,7 +23745,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>25</v>
@@ -23816,7 +23757,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -23828,7 +23769,7 @@
         <v>24</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>25</v>
@@ -23840,7 +23781,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -23852,7 +23793,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>25</v>
@@ -23864,7 +23805,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -23876,7 +23817,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>25</v>
@@ -23888,7 +23829,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -23900,7 +23841,7 @@
         <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>25</v>
@@ -23912,7 +23853,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -23924,7 +23865,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>25</v>
@@ -23932,10 +23873,10 @@
       <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="58"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="6">
         <f>SUBTOTAL(109,C4:C35)</f>
         <v>32</v>
@@ -24001,51 +23942,51 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -24057,7 +23998,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -24069,7 +24010,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -24081,7 +24022,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -24093,7 +24034,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -24105,7 +24046,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -24117,7 +24058,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -24129,7 +24070,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -24141,7 +24082,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -24153,7 +24094,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>25</v>
@@ -24165,7 +24106,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -24177,7 +24118,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
@@ -24189,7 +24130,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -24201,7 +24142,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>25</v>
@@ -24213,7 +24154,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -24225,7 +24166,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>25</v>
@@ -24237,7 +24178,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -24249,7 +24190,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>25</v>
@@ -24261,7 +24202,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -24273,7 +24214,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>25</v>
@@ -24285,7 +24226,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -24297,7 +24238,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>25</v>
@@ -24309,7 +24250,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -24321,7 +24262,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
@@ -24333,7 +24274,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -24345,10 +24286,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -24357,7 +24298,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -24369,7 +24310,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -24377,10 +24318,10 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="6">
         <f>SUBTOTAL(109,C4:C17)</f>
         <v>14</v>
@@ -24448,51 +24389,51 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="23" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="61" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="23" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="35">
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C4" s="36">
         <v>1</v>
@@ -24516,7 +24457,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C5" s="36">
         <v>1</v>
@@ -24540,7 +24481,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C6" s="36">
         <v>1</v>
@@ -24564,7 +24505,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -24588,7 +24529,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
@@ -24606,7 +24547,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1">
@@ -24614,7 +24555,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C9" s="36">
         <v>1</v>
@@ -24632,7 +24573,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1">
@@ -24640,7 +24581,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -24664,7 +24605,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C11" s="36">
         <v>1</v>
@@ -24688,7 +24629,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C12" s="36">
         <v>1</v>
@@ -24712,7 +24653,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -24736,7 +24677,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C14" s="36">
         <v>1</v>
@@ -24760,7 +24701,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C15" s="36">
         <v>1</v>
@@ -24784,7 +24725,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C16" s="36">
         <v>1</v>
@@ -24808,7 +24749,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C17" s="36">
         <v>1</v>
@@ -24832,7 +24773,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C18" s="36">
         <v>1</v>
@@ -24856,7 +24797,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C19" s="36">
         <v>1</v>
@@ -24880,7 +24821,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C20" s="36">
         <v>1</v>
@@ -24904,7 +24845,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C21" s="36">
         <v>1</v>
@@ -24928,7 +24869,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C22" s="36">
         <v>1</v>
@@ -24940,7 +24881,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>25</v>
@@ -24952,7 +24893,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C23" s="36">
         <v>1</v>
@@ -24964,7 +24905,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>25</v>
@@ -24976,7 +24917,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C24" s="36">
         <v>1</v>
@@ -24988,7 +24929,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>25</v>
@@ -25000,7 +24941,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C25" s="36">
         <v>1</v>
@@ -25012,7 +24953,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>25</v>
@@ -25020,10 +24961,10 @@
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="37">
         <f>SUM(C4:C25)</f>
         <v>22</v>
@@ -25094,51 +25035,51 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="46">
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -25150,7 +25091,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -25158,10 +25099,10 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="22">
         <f>SUBTOTAL(109,C4:C4)</f>
         <v>1</v>
@@ -25228,51 +25169,51 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="46">
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -25284,7 +25225,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -25292,10 +25233,10 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="22">
         <f>SUBTOTAL(109,C4:C4)</f>
         <v>1</v>
@@ -25349,51 +25290,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="46">
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -25417,7 +25358,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
@@ -25437,10 +25378,10 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="13.5">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="22">
         <v>2</v>
       </c>
@@ -25503,51 +25444,51 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -25559,7 +25500,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -25571,7 +25512,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -25583,7 +25524,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -25595,7 +25536,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -25607,7 +25548,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -25619,7 +25560,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -25631,7 +25572,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -25643,7 +25584,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -25655,7 +25596,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>25</v>
@@ -25667,7 +25608,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -25679,7 +25620,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
@@ -25691,7 +25632,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -25703,7 +25644,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>25</v>
@@ -25715,7 +25656,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -25727,7 +25668,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>25</v>
@@ -25739,7 +25680,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -25751,7 +25692,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>25</v>
@@ -25763,7 +25704,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -25775,7 +25716,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>25</v>
@@ -25787,7 +25728,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -25799,7 +25740,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>25</v>
@@ -25811,7 +25752,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -25823,7 +25764,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
@@ -25835,7 +25776,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -25847,7 +25788,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>25</v>
@@ -25859,7 +25800,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -25871,7 +25812,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>25</v>
@@ -25883,7 +25824,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -25895,7 +25836,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>25</v>
@@ -25907,7 +25848,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -25919,7 +25860,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>25</v>
@@ -25931,7 +25872,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -25943,7 +25884,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>25</v>
@@ -25955,7 +25896,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -25967,7 +25908,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>25</v>
@@ -25979,7 +25920,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -25991,7 +25932,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>25</v>
@@ -26003,7 +25944,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -26015,7 +25956,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>25</v>
@@ -26027,7 +25968,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -26039,7 +25980,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>25</v>
@@ -26051,7 +25992,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -26063,7 +26004,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>25</v>
@@ -26075,7 +26016,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -26087,7 +26028,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>25</v>
@@ -26099,7 +26040,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -26111,7 +26052,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -26123,7 +26064,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -26135,7 +26076,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>25</v>
@@ -26147,7 +26088,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -26159,7 +26100,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>25</v>
@@ -26171,7 +26112,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -26183,7 +26124,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>25</v>
@@ -26195,7 +26136,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -26207,7 +26148,7 @@
         <v>24</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>25</v>
@@ -26219,7 +26160,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -26231,7 +26172,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>25</v>
@@ -26243,7 +26184,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -26255,7 +26196,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>25</v>
@@ -26267,7 +26208,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -26279,7 +26220,7 @@
         <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>25</v>
@@ -26291,7 +26232,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -26303,7 +26244,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>25</v>
@@ -26315,7 +26256,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -26327,7 +26268,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>25</v>
@@ -26339,7 +26280,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -26351,7 +26292,7 @@
         <v>24</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>25</v>
@@ -26363,7 +26304,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -26375,7 +26316,7 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>25</v>
@@ -26387,7 +26328,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -26399,7 +26340,7 @@
         <v>24</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>25</v>
@@ -26411,7 +26352,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -26423,7 +26364,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>25</v>
@@ -26435,7 +26376,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -26447,7 +26388,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>25</v>
@@ -26459,7 +26400,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
@@ -26471,7 +26412,7 @@
         <v>24</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>25</v>
@@ -26483,7 +26424,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C43" s="6">
         <v>1</v>
@@ -26495,7 +26436,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>25</v>
@@ -26507,7 +26448,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -26519,7 +26460,7 @@
         <v>24</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>25</v>
@@ -26531,7 +26472,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
@@ -26543,7 +26484,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>25</v>
@@ -26555,7 +26496,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
@@ -26567,7 +26508,7 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>25</v>
@@ -26579,7 +26520,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -26591,7 +26532,7 @@
         <v>24</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>25</v>
@@ -26603,7 +26544,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -26615,7 +26556,7 @@
         <v>24</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>25</v>
@@ -26627,7 +26568,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -26639,7 +26580,7 @@
         <v>24</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>25</v>
@@ -26651,7 +26592,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
@@ -26663,7 +26604,7 @@
         <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>25</v>
@@ -26675,7 +26616,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C51" s="6">
         <v>1</v>
@@ -26687,7 +26628,7 @@
         <v>24</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>25</v>
@@ -26699,7 +26640,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
@@ -26711,7 +26652,7 @@
         <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>25</v>
@@ -26723,7 +26664,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C53" s="6">
         <v>1</v>
@@ -26735,7 +26676,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>25</v>
@@ -26747,7 +26688,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -26759,7 +26700,7 @@
         <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>25</v>
@@ -26771,7 +26712,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C55" s="6">
         <v>1</v>
@@ -26783,7 +26724,7 @@
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>25</v>
@@ -26795,7 +26736,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -26807,7 +26748,7 @@
         <v>24</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>25</v>
@@ -26819,7 +26760,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -26831,7 +26772,7 @@
         <v>24</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>25</v>
@@ -26843,7 +26784,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -26855,7 +26796,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>25</v>
@@ -26867,7 +26808,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C59" s="6">
         <v>1</v>
@@ -26879,7 +26820,7 @@
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>25</v>
@@ -26891,7 +26832,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C60" s="6">
         <v>1</v>
@@ -26903,7 +26844,7 @@
         <v>24</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>25</v>
@@ -26915,7 +26856,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C61" s="6">
         <v>1</v>
@@ -26927,7 +26868,7 @@
         <v>24</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>25</v>
@@ -26939,7 +26880,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C62" s="6">
         <v>1</v>
@@ -26951,7 +26892,7 @@
         <v>24</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>25</v>
@@ -26963,7 +26904,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C63" s="6">
         <v>1</v>
@@ -26975,7 +26916,7 @@
         <v>24</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>25</v>
@@ -26983,10 +26924,10 @@
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="52"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="6">
         <f>SUBTOTAL(109,C4:C63)</f>
         <v>60</v>
@@ -27051,44 +26992,44 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
@@ -27107,7 +27048,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -27131,7 +27072,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -27143,7 +27084,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27163,10 +27104,10 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="6">
         <f>SUBTOTAL(109,C4:C6)</f>
         <v>3</v>
@@ -27233,51 +27174,51 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="51"/>
+        <v>76</v>
+      </c>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -27289,7 +27230,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -27301,7 +27242,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -27313,7 +27254,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -27325,7 +27266,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27337,7 +27278,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -27361,7 +27302,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -27373,7 +27314,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -27385,7 +27326,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>25</v>
@@ -27397,7 +27338,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -27417,10 +27358,10 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A10" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="52"/>
+      <c r="A10" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="54"/>
       <c r="C10" s="6">
         <f>SUM(C4:C9)</f>
         <v>6</v>
@@ -27429,13 +27370,13 @@
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -27488,51 +27429,51 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -27544,7 +27485,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -27556,7 +27497,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -27568,7 +27509,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -27580,7 +27521,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27592,7 +27533,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -27604,7 +27545,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -27616,7 +27557,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -27624,10 +27565,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="6">
         <f>SUM(C4:C7)</f>
         <v>4</v>
@@ -27694,51 +27635,51 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>74</v>
+      <c r="C2" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="51"/>
+        <v>64</v>
+      </c>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -27782,7 +27723,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -27804,7 +27745,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -27826,7 +27767,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -27848,7 +27789,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -27870,7 +27811,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -27892,7 +27833,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
@@ -27914,7 +27855,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -27932,25 +27873,25 @@
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="18">
         <f>SUM(C4:C12)</f>
         <v>9</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H13" s="19"/>
     </row>
@@ -28002,69 +27943,69 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5">
@@ -28072,7 +28013,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -28084,13 +28025,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5">
@@ -28098,7 +28039,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -28110,13 +28051,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5">
@@ -28124,7 +28065,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -28136,13 +28077,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5">
@@ -28150,7 +28091,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -28162,13 +28103,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5">
@@ -28176,7 +28117,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -28188,13 +28129,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5">
@@ -28202,7 +28143,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -28214,13 +28155,13 @@
         <v>6</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5">
@@ -28228,7 +28169,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -28240,13 +28181,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5">
@@ -28254,7 +28195,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -28266,13 +28207,13 @@
         <v>6</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5">
@@ -28280,7 +28221,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -28292,20 +28233,20 @@
         <v>6</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="6">
         <f>SUBTOTAL(109,C4:C13)</f>
         <v>10</v>
@@ -28372,51 +28313,51 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
@@ -28428,7 +28369,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -28440,7 +28381,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C5" s="20">
         <v>1</v>
@@ -28452,7 +28393,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>25</v>
@@ -28464,7 +28405,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -28488,7 +28429,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C7" s="20">
         <v>1</v>
@@ -28500,7 +28441,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -28508,10 +28449,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="6">
         <f>SUBTOTAL(109,C4:C7)</f>
         <v>4</v>
@@ -28578,44 +28519,44 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13.5">
       <c r="A4" s="7">
@@ -28694,22 +28635,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -28718,22 +28659,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -28742,22 +28683,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H9" s="10"/>
     </row>
@@ -28766,22 +28707,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -28790,7 +28731,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -28802,10 +28743,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -28814,7 +28755,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -28826,10 +28767,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -28838,7 +28779,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -28850,18 +28791,18 @@
         <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="16.5">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="6">
         <f>SUBTOTAL(109,C4:C13)</f>
         <v>10</v>
